--- a/iterationsNORMAL/iter_0/data.xlsx
+++ b/iterationsNORMAL/iter_0/data.xlsx
@@ -453,1652 +453,1652 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24.8099890371603</v>
+        <v>-16.23915602858259</v>
       </c>
       <c r="B2" t="n">
-        <v>-19.53726081238553</v>
+        <v>29.34543155233385</v>
       </c>
       <c r="C2" t="n">
-        <v>-24.15776734597035</v>
+        <v>32.01393713012256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30.457723215349</v>
+        <v>-27.59018628689212</v>
       </c>
       <c r="B3" t="n">
-        <v>29.23994221884029</v>
+        <v>46.91306574652068</v>
       </c>
       <c r="C3" t="n">
-        <v>-30.65572526358525</v>
+        <v>-20.48451160442741</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-30.02776031237856</v>
+        <v>-24.94819367164843</v>
       </c>
       <c r="B4" t="n">
-        <v>-30.3601126359303</v>
+        <v>-15.33312818686966</v>
       </c>
       <c r="C4" t="n">
-        <v>4.357141297643955</v>
+        <v>-29.85258378232973</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-35.2746736769878</v>
+        <v>-37.64553268332777</v>
       </c>
       <c r="B5" t="n">
-        <v>31.3703038671482</v>
+        <v>-21.44482006048927</v>
       </c>
       <c r="C5" t="n">
-        <v>-26.45356995556137</v>
+        <v>-45.10395935705196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59.23162425956863</v>
+        <v>28.81764558256314</v>
       </c>
       <c r="B6" t="n">
-        <v>-28.12324068285661</v>
+        <v>-34.27260728695001</v>
       </c>
       <c r="C6" t="n">
-        <v>37.26902906284139</v>
+        <v>-26.83138976196402</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-23.27889141327827</v>
+        <v>25.34106702776291</v>
       </c>
       <c r="B7" t="n">
-        <v>-21.88413087254826</v>
+        <v>21.45385177600768</v>
       </c>
       <c r="C7" t="n">
-        <v>35.35770108999191</v>
+        <v>28.55635184073799</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34.28757196428258</v>
+        <v>-18.2955597250806</v>
       </c>
       <c r="B8" t="n">
-        <v>-31.28457056163842</v>
+        <v>22.1222524346644</v>
       </c>
       <c r="C8" t="n">
-        <v>2.555250063687339</v>
+        <v>-20.66434134285032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-13.84835036134717</v>
+        <v>-29.68834202787201</v>
       </c>
       <c r="B9" t="n">
-        <v>58.18185183619985</v>
+        <v>35.6238844023908</v>
       </c>
       <c r="C9" t="n">
-        <v>-8.50501300941322</v>
+        <v>-25.03647566623024</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-16.59651058466714</v>
+        <v>-25.81216560477005</v>
       </c>
       <c r="B10" t="n">
-        <v>11.80922337701753</v>
+        <v>-17.06489136824662</v>
       </c>
       <c r="C10" t="n">
-        <v>24.81500046845716</v>
+        <v>-33.9069797595435</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8.193552715884977</v>
+        <v>-21.09438968654493</v>
       </c>
       <c r="B11" t="n">
-        <v>27.22523700023786</v>
+        <v>-12.33661740528689</v>
       </c>
       <c r="C11" t="n">
-        <v>26.89756337974112</v>
+        <v>-35.57197071045795</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43.65370369146346</v>
+        <v>32.19429987628151</v>
       </c>
       <c r="B12" t="n">
-        <v>11.08890300779091</v>
+        <v>25.35824233259842</v>
       </c>
       <c r="C12" t="n">
-        <v>26.35468454884009</v>
+        <v>-22.20511340001163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11.76851030629827</v>
+        <v>-30.4477402679983</v>
       </c>
       <c r="B13" t="n">
-        <v>-40.55559794631631</v>
+        <v>13.54375054239617</v>
       </c>
       <c r="C13" t="n">
-        <v>37.18421429251031</v>
+        <v>-21.20714485695297</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>28.08366076007902</v>
+        <v>27.99818416737883</v>
       </c>
       <c r="B14" t="n">
-        <v>3.818922745737277</v>
+        <v>21.72136100684889</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.869570378044727</v>
+        <v>-29.18358676820586</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-36.83718481532613</v>
+        <v>-31.26942078853348</v>
       </c>
       <c r="B15" t="n">
-        <v>-35.32720695038803</v>
+        <v>31.5714993795259</v>
       </c>
       <c r="C15" t="n">
-        <v>-34.38593039285887</v>
+        <v>-37.88015368612776</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17.44634825874239</v>
+        <v>31.11570592832767</v>
       </c>
       <c r="B16" t="n">
-        <v>47.51235095604019</v>
+        <v>-28.80363883435549</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.01405941796872</v>
+        <v>16.02165323240096</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>38.16929583222652</v>
+        <v>-28.08324151087826</v>
       </c>
       <c r="B17" t="n">
-        <v>-15.86211746185318</v>
+        <v>-29.06045676237151</v>
       </c>
       <c r="C17" t="n">
-        <v>-20.6857321687581</v>
+        <v>17.29506061824182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-20.80892462719775</v>
+        <v>-36.53710314703734</v>
       </c>
       <c r="B18" t="n">
-        <v>46.493106782071</v>
+        <v>24.24224489057598</v>
       </c>
       <c r="C18" t="n">
-        <v>30.36597877302826</v>
+        <v>-12.41902334977956</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-18.27552441787282</v>
+        <v>-27.54006179131764</v>
       </c>
       <c r="B19" t="n">
-        <v>-32.37094882253351</v>
+        <v>-17.64329368467323</v>
       </c>
       <c r="C19" t="n">
-        <v>5.333467059758757</v>
+        <v>31.13133471431607</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-26.24689203485837</v>
+        <v>-14.82245122000079</v>
       </c>
       <c r="B20" t="n">
-        <v>11.50323482729701</v>
+        <v>-26.19726036447116</v>
       </c>
       <c r="C20" t="n">
-        <v>-34.55553184639053</v>
+        <v>-22.41825487844229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>29.05239983869495</v>
+        <v>25.97683950403736</v>
       </c>
       <c r="B21" t="n">
-        <v>-8.536194628841937</v>
+        <v>33.94407177406696</v>
       </c>
       <c r="C21" t="n">
-        <v>45.2705349806489</v>
+        <v>-15.55700001327163</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>56.58907461454318</v>
+        <v>-18.39646414145831</v>
       </c>
       <c r="B22" t="n">
-        <v>-40.07471735775135</v>
+        <v>22.72797348077823</v>
       </c>
       <c r="C22" t="n">
-        <v>5.600325149720276</v>
+        <v>-29.88395036871253</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>28.08184555173578</v>
+        <v>-33.63785203315282</v>
       </c>
       <c r="B23" t="n">
-        <v>-26.43811622371631</v>
+        <v>-45.65895446810148</v>
       </c>
       <c r="C23" t="n">
-        <v>-23.98867181713826</v>
+        <v>22.42962887082987</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-29.1063802260651</v>
+        <v>-35.05146546089181</v>
       </c>
       <c r="B24" t="n">
-        <v>65.14488376739087</v>
+        <v>-21.84669312276187</v>
       </c>
       <c r="C24" t="n">
-        <v>36.4640982626286</v>
+        <v>-25.62409687896246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.196572676449588</v>
+        <v>22.22780540629675</v>
       </c>
       <c r="B25" t="n">
-        <v>45.46614508322288</v>
+        <v>-28.28471891258156</v>
       </c>
       <c r="C25" t="n">
-        <v>-14.41579276998321</v>
+        <v>11.39284431536386</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>47.26368179777453</v>
+        <v>-28.92809478035341</v>
       </c>
       <c r="B26" t="n">
-        <v>-30.65182513454488</v>
+        <v>-32.14489644174024</v>
       </c>
       <c r="C26" t="n">
-        <v>1.290721915628997</v>
+        <v>27.35778195119946</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.6833343366213773</v>
+        <v>-18.50406859878077</v>
       </c>
       <c r="B27" t="n">
-        <v>-34.00999637111028</v>
+        <v>21.99861581009096</v>
       </c>
       <c r="C27" t="n">
-        <v>-42.00456141927491</v>
+        <v>-44.92574896189632</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26.74012609214063</v>
+        <v>-20.24758370017805</v>
       </c>
       <c r="B28" t="n">
-        <v>19.09706394696086</v>
+        <v>7.921797348025069</v>
       </c>
       <c r="C28" t="n">
-        <v>-25.43966253475995</v>
+        <v>25.57519051044798</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-17.65156017746985</v>
+        <v>-44.86763587967809</v>
       </c>
       <c r="B29" t="n">
-        <v>35.53710450547831</v>
+        <v>-19.71142020552699</v>
       </c>
       <c r="C29" t="n">
-        <v>-32.11734934204182</v>
+        <v>35.09094706982699</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-30.25116159984305</v>
+        <v>26.04668785858362</v>
       </c>
       <c r="B30" t="n">
-        <v>-32.02057606960218</v>
+        <v>-27.2623792972645</v>
       </c>
       <c r="C30" t="n">
-        <v>-19.92092925691333</v>
+        <v>30.12245080931953</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-33.1806443654412</v>
+        <v>30.12212448401417</v>
       </c>
       <c r="B31" t="n">
-        <v>26.03959032518027</v>
+        <v>33.66972018940492</v>
       </c>
       <c r="C31" t="n">
-        <v>18.88969757295557</v>
+        <v>-38.16025575477831</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-35.10987933280498</v>
+        <v>42.19659988367326</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.4670702357432558</v>
+        <v>-27.25953344884028</v>
       </c>
       <c r="C32" t="n">
-        <v>44.99864722225777</v>
+        <v>-27.23018408045549</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-20.74489934777349</v>
+        <v>-23.94113118773534</v>
       </c>
       <c r="B33" t="n">
-        <v>58.2806559039155</v>
+        <v>22.79788078217821</v>
       </c>
       <c r="C33" t="n">
-        <v>64.25786862872263</v>
+        <v>32.35685570773028</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>40.02161822562584</v>
+        <v>-32.16434889815395</v>
       </c>
       <c r="B34" t="n">
-        <v>41.88091642517508</v>
+        <v>24.97160578008715</v>
       </c>
       <c r="C34" t="n">
-        <v>-12.57500776445509</v>
+        <v>9.51156764737325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34.61225799835075</v>
+        <v>26.31349150746473</v>
       </c>
       <c r="B35" t="n">
-        <v>-21.99429504381546</v>
+        <v>-27.16520470172989</v>
       </c>
       <c r="C35" t="n">
-        <v>52.82136364703018</v>
+        <v>24.67181553830446</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>32.12612625046444</v>
+        <v>-27.42898617507981</v>
       </c>
       <c r="B36" t="n">
-        <v>-33.13518332139082</v>
+        <v>-30.49803154350183</v>
       </c>
       <c r="C36" t="n">
-        <v>97.88513056690564</v>
+        <v>24.93827665625941</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-30.4612029781685</v>
+        <v>-23.76716077549605</v>
       </c>
       <c r="B37" t="n">
-        <v>58.00697018883574</v>
+        <v>-13.51885539095281</v>
       </c>
       <c r="C37" t="n">
-        <v>-25.65173709012865</v>
+        <v>26.54792149393486</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-17.91317785829844</v>
+        <v>-28.25330125378002</v>
       </c>
       <c r="B38" t="n">
-        <v>22.29974503870985</v>
+        <v>13.46042098662814</v>
       </c>
       <c r="C38" t="n">
-        <v>-28.02066759291865</v>
+        <v>-26.45516083092569</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7.256926535924915</v>
+        <v>-38.31874987443719</v>
       </c>
       <c r="B39" t="n">
-        <v>-24.05659723987977</v>
+        <v>-30.59113787339473</v>
       </c>
       <c r="C39" t="n">
-        <v>-22.62163970146252</v>
+        <v>14.07369074185778</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-17.0822708298589</v>
+        <v>-26.29498960238268</v>
       </c>
       <c r="B40" t="n">
-        <v>15.11451995113284</v>
+        <v>-11.41015090057494</v>
       </c>
       <c r="C40" t="n">
-        <v>35.70741189892492</v>
+        <v>16.15096709539691</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-38.84569815172029</v>
+        <v>-29.12076983682867</v>
       </c>
       <c r="B41" t="n">
-        <v>28.2463394618504</v>
+        <v>-11.9239920993597</v>
       </c>
       <c r="C41" t="n">
-        <v>-15.27282114832177</v>
+        <v>33.42368516438765</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4.86155427166918</v>
+        <v>45.75597149684789</v>
       </c>
       <c r="B42" t="n">
-        <v>-22.45000699875058</v>
+        <v>-21.86562418768044</v>
       </c>
       <c r="C42" t="n">
-        <v>-36.11075984750038</v>
+        <v>36.13028662125906</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>14.63896866520325</v>
+        <v>26.25876592548513</v>
       </c>
       <c r="B43" t="n">
-        <v>-22.11327514862408</v>
+        <v>29.9998038898616</v>
       </c>
       <c r="C43" t="n">
-        <v>-27.88109069133862</v>
+        <v>-32.43190130800607</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-25.28239374910014</v>
+        <v>39.04065939888067</v>
       </c>
       <c r="B44" t="n">
-        <v>-16.96082411000053</v>
+        <v>-20.94990159163195</v>
       </c>
       <c r="C44" t="n">
-        <v>-17.02853016962607</v>
+        <v>36.35775775725364</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-14.63302263200337</v>
+        <v>-21.80097657059399</v>
       </c>
       <c r="B45" t="n">
-        <v>-26.13510640340325</v>
+        <v>-37.23745531809675</v>
       </c>
       <c r="C45" t="n">
-        <v>63.26969480748306</v>
+        <v>34.9732316006406</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>52.5728441743103</v>
+        <v>-32.59873470870532</v>
       </c>
       <c r="B46" t="n">
-        <v>39.88771443480451</v>
+        <v>-33.51733380904308</v>
       </c>
       <c r="C46" t="n">
-        <v>-23.56455955933813</v>
+        <v>33.92233617956392</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>37.81152804349947</v>
+        <v>-17.39799987035662</v>
       </c>
       <c r="B47" t="n">
-        <v>35.45157346497348</v>
+        <v>39.50877204445246</v>
       </c>
       <c r="C47" t="n">
-        <v>-19.0167912628053</v>
+        <v>-33.43631993027902</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>66.00853002522267</v>
+        <v>5.734796373699577</v>
       </c>
       <c r="B48" t="n">
-        <v>-41.33272260256724</v>
+        <v>19.93866455398613</v>
       </c>
       <c r="C48" t="n">
-        <v>28.51707003376956</v>
+        <v>-27.22300352546916</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>67.19525880141094</v>
+        <v>-23.53363663379445</v>
       </c>
       <c r="B49" t="n">
-        <v>-28.78399291692344</v>
+        <v>-27.13862343198071</v>
       </c>
       <c r="C49" t="n">
-        <v>-7.138191303189596</v>
+        <v>-28.20195088713428</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-13.12494413440844</v>
+        <v>22.80023000641636</v>
       </c>
       <c r="B50" t="n">
-        <v>-21.00283453595761</v>
+        <v>16.37518463969523</v>
       </c>
       <c r="C50" t="n">
-        <v>-15.40099144612752</v>
+        <v>19.36252531647005</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-22.43990970089162</v>
+        <v>-23.73585492482902</v>
       </c>
       <c r="B51" t="n">
-        <v>-9.414820547591466</v>
+        <v>34.85147934384885</v>
       </c>
       <c r="C51" t="n">
-        <v>-23.38854655346487</v>
+        <v>34.6034103270748</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>72.68806631134861</v>
+        <v>-16.4000488418411</v>
       </c>
       <c r="B52" t="n">
-        <v>8.589294635391358</v>
+        <v>-23.50060049229981</v>
       </c>
       <c r="C52" t="n">
-        <v>-23.57464705842209</v>
+        <v>37.79017907089063</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-18.1998208643084</v>
+        <v>13.69807912373907</v>
       </c>
       <c r="B53" t="n">
-        <v>32.75997359798527</v>
+        <v>-34.24663742265619</v>
       </c>
       <c r="C53" t="n">
-        <v>-26.43520852473777</v>
+        <v>31.61274028418081</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-24.81305051441816</v>
+        <v>-29.52478218209066</v>
       </c>
       <c r="B54" t="n">
-        <v>-17.5833758833049</v>
+        <v>-28.91675469952913</v>
       </c>
       <c r="C54" t="n">
-        <v>47.28522118131779</v>
+        <v>-33.5972890692166</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>63.33304188432805</v>
+        <v>-13.08662228702739</v>
       </c>
       <c r="B55" t="n">
-        <v>-23.73475254605914</v>
+        <v>-36.7970642190914</v>
       </c>
       <c r="C55" t="n">
-        <v>1.404549246401348</v>
+        <v>44.31984509149469</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6.574809871106571</v>
+        <v>21.55090643822975</v>
       </c>
       <c r="B56" t="n">
-        <v>65.74299074087263</v>
+        <v>-15.79130473979743</v>
       </c>
       <c r="C56" t="n">
-        <v>32.08367016022477</v>
+        <v>-45.24151316865511</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-19.90076738395511</v>
+        <v>36.99691231956598</v>
       </c>
       <c r="B57" t="n">
-        <v>-22.56474610476887</v>
+        <v>-33.06821674966679</v>
       </c>
       <c r="C57" t="n">
-        <v>-26.08160126644069</v>
+        <v>-15.6112832053126</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-21.8951195849553</v>
+        <v>21.88699809253514</v>
       </c>
       <c r="B58" t="n">
-        <v>18.51651756388775</v>
+        <v>5.648536881587055</v>
       </c>
       <c r="C58" t="n">
-        <v>-17.20623070085191</v>
+        <v>-35.42599343564694</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-17.46650751406855</v>
+        <v>-16.67145279813215</v>
       </c>
       <c r="B59" t="n">
-        <v>-28.49879176202899</v>
+        <v>-28.03832568598911</v>
       </c>
       <c r="C59" t="n">
-        <v>-32.53172028478053</v>
+        <v>-29.70036960206254</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-30.11648758490699</v>
+        <v>-13.5472454194208</v>
       </c>
       <c r="B60" t="n">
-        <v>31.3084144438482</v>
+        <v>26.68438611440953</v>
       </c>
       <c r="C60" t="n">
-        <v>-20.8285732729551</v>
+        <v>-17.86493675694043</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-23.16141214616</v>
+        <v>-36.7486159489365</v>
       </c>
       <c r="B61" t="n">
-        <v>47.78350244965431</v>
+        <v>32.75662119137862</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8221747905284855</v>
+        <v>-22.87937913207141</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>23.07419174533284</v>
+        <v>13.63149605668249</v>
       </c>
       <c r="B62" t="n">
-        <v>69.13680797056647</v>
+        <v>-11.95465114900026</v>
       </c>
       <c r="C62" t="n">
-        <v>-22.1757418167945</v>
+        <v>36.22976014048476</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-21.08383101111276</v>
+        <v>33.8883005760574</v>
       </c>
       <c r="B63" t="n">
-        <v>-34.51296037056356</v>
+        <v>28.09039638944068</v>
       </c>
       <c r="C63" t="n">
-        <v>48.35960438218416</v>
+        <v>-36.70451889386341</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-19.69741131030833</v>
+        <v>-24.66645607341565</v>
       </c>
       <c r="B64" t="n">
-        <v>-31.30839380121353</v>
+        <v>-25.52093180827636</v>
       </c>
       <c r="C64" t="n">
-        <v>29.63699539836354</v>
+        <v>-25.60418946785276</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>23.31113490847186</v>
+        <v>29.19162274229627</v>
       </c>
       <c r="B65" t="n">
-        <v>9.937561088984221</v>
+        <v>23.58324321496752</v>
       </c>
       <c r="C65" t="n">
-        <v>-26.98692878331844</v>
+        <v>-21.00561625298073</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-25.80893325475229</v>
+        <v>22.89745835471621</v>
       </c>
       <c r="B66" t="n">
-        <v>-29.11861996346547</v>
+        <v>11.36951016878952</v>
       </c>
       <c r="C66" t="n">
-        <v>-18.20551430047807</v>
+        <v>-33.92993769910792</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-10.78796316181698</v>
+        <v>33.67312059073011</v>
       </c>
       <c r="B67" t="n">
-        <v>36.21453549867942</v>
+        <v>-20.43670357480169</v>
       </c>
       <c r="C67" t="n">
-        <v>-17.60944319126984</v>
+        <v>-11.83614561053021</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-29.49332081121121</v>
+        <v>-18.64191174988581</v>
       </c>
       <c r="B68" t="n">
-        <v>27.5504365960531</v>
+        <v>10.49225039777566</v>
       </c>
       <c r="C68" t="n">
-        <v>22.53483200684182</v>
+        <v>23.66406316670575</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-25.39527755689196</v>
+        <v>29.48057203186314</v>
       </c>
       <c r="B69" t="n">
-        <v>-24.74557052921147</v>
+        <v>-40.2352281894951</v>
       </c>
       <c r="C69" t="n">
-        <v>-33.13112213004858</v>
+        <v>25.9057197885449</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>29.191283448985</v>
+        <v>24.31972452665501</v>
       </c>
       <c r="B70" t="n">
-        <v>42.79031881579207</v>
+        <v>34.81575634443855</v>
       </c>
       <c r="C70" t="n">
-        <v>-31.75000305002391</v>
+        <v>29.78626947352206</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-33.58367493102735</v>
+        <v>38.84351098020456</v>
       </c>
       <c r="B71" t="n">
-        <v>-24.05245322461549</v>
+        <v>29.39729891441306</v>
       </c>
       <c r="C71" t="n">
-        <v>-24.86205355884639</v>
+        <v>23.81555511139403</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-27.61063934029519</v>
+        <v>-18.70317921214917</v>
       </c>
       <c r="B72" t="n">
-        <v>3.661004479943784</v>
+        <v>-28.3083299369932</v>
       </c>
       <c r="C72" t="n">
-        <v>-15.29856590509268</v>
+        <v>23.37706930478533</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>32.65887580316139</v>
+        <v>16.63451819845137</v>
       </c>
       <c r="B73" t="n">
-        <v>96.75248031964988</v>
+        <v>-27.02810688993518</v>
       </c>
       <c r="C73" t="n">
-        <v>37.50720674117886</v>
+        <v>-16.26125869182076</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-30.03715517465879</v>
+        <v>23.35623207463419</v>
       </c>
       <c r="B74" t="n">
-        <v>-17.88968487773561</v>
+        <v>15.78593493518344</v>
       </c>
       <c r="C74" t="n">
-        <v>25.82134212353828</v>
+        <v>-29.64951041514721</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.006477280782563</v>
+        <v>-16.10541503591798</v>
       </c>
       <c r="B75" t="n">
-        <v>-23.92016254665583</v>
+        <v>-23.31012218333209</v>
       </c>
       <c r="C75" t="n">
-        <v>-16.33289908404448</v>
+        <v>-29.69884915506757</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>30.77440253448677</v>
+        <v>-28.90050237298413</v>
       </c>
       <c r="B76" t="n">
-        <v>-21.64040739716203</v>
+        <v>-14.60354323305475</v>
       </c>
       <c r="C76" t="n">
-        <v>-8.77969685067184</v>
+        <v>-20.068980617319</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4.5962909891406</v>
+        <v>12.42584447610437</v>
       </c>
       <c r="B77" t="n">
-        <v>43.74338663635135</v>
+        <v>-7.136130107674094</v>
       </c>
       <c r="C77" t="n">
-        <v>22.28044724733191</v>
+        <v>29.70228380475863</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>72.41415366900421</v>
+        <v>5.459446968918794</v>
       </c>
       <c r="B78" t="n">
-        <v>-12.47848449313544</v>
+        <v>-24.98849263893444</v>
       </c>
       <c r="C78" t="n">
-        <v>-29.62871942439438</v>
+        <v>-23.07031576230525</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-47.31265934943668</v>
+        <v>8.342387073548428</v>
       </c>
       <c r="B79" t="n">
-        <v>-16.17391744251747</v>
+        <v>15.48213926261097</v>
       </c>
       <c r="C79" t="n">
-        <v>-14.91498431389027</v>
+        <v>-39.02559877322236</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>28.01288169238434</v>
+        <v>-25.11169525064363</v>
       </c>
       <c r="B80" t="n">
-        <v>-27.47218128348048</v>
+        <v>-11.79646645763742</v>
       </c>
       <c r="C80" t="n">
-        <v>-20.56722427701527</v>
+        <v>-20.90618321334836</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-35.35202447849262</v>
+        <v>-31.36161032601538</v>
       </c>
       <c r="B81" t="n">
-        <v>1.370479198473512</v>
+        <v>-26.79843719059567</v>
       </c>
       <c r="C81" t="n">
-        <v>-9.843158783920765</v>
+        <v>-34.45335379837339</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>20.68811416917948</v>
+        <v>-27.52555004866443</v>
       </c>
       <c r="B82" t="n">
-        <v>-17.81821351108807</v>
+        <v>34.25691356289435</v>
       </c>
       <c r="C82" t="n">
-        <v>37.362151592515</v>
+        <v>-16.48747950807603</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-27.26782229326545</v>
+        <v>-28.85156791296552</v>
       </c>
       <c r="B83" t="n">
-        <v>37.37629002340709</v>
+        <v>-33.32177762146846</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.54999442453543</v>
+        <v>28.07851038467772</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>20.23556693748325</v>
+        <v>-23.05797373545699</v>
       </c>
       <c r="B84" t="n">
-        <v>-13.69096616231486</v>
+        <v>-12.47100288109197</v>
       </c>
       <c r="C84" t="n">
-        <v>47.0457631561573</v>
+        <v>-19.66491044013577</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>80.91885832151519</v>
+        <v>34.87750271508951</v>
       </c>
       <c r="B85" t="n">
-        <v>-29.92123070777395</v>
+        <v>24.6349928335635</v>
       </c>
       <c r="C85" t="n">
-        <v>-19.17384901576273</v>
+        <v>18.85549479959841</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>12.48745745471011</v>
+        <v>-23.0278034992228</v>
       </c>
       <c r="B86" t="n">
-        <v>-8.954397473611751</v>
+        <v>21.89095879722711</v>
       </c>
       <c r="C86" t="n">
-        <v>6.587869139031439</v>
+        <v>-21.78848055847775</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-29.92225522224444</v>
+        <v>-25.21748812767382</v>
       </c>
       <c r="B87" t="n">
-        <v>-10.74934266034551</v>
+        <v>-34.29966863766142</v>
       </c>
       <c r="C87" t="n">
-        <v>-28.68969192714049</v>
+        <v>-15.3984620552403</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-4.281081037390249</v>
+        <v>-19.36982402982094</v>
       </c>
       <c r="B88" t="n">
-        <v>-14.82919841702535</v>
+        <v>-23.47774956471863</v>
       </c>
       <c r="C88" t="n">
-        <v>-18.63651637654852</v>
+        <v>35.0119796188106</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>33.46984682443465</v>
+        <v>40.60737951390345</v>
       </c>
       <c r="B89" t="n">
-        <v>-28.78939937318684</v>
+        <v>23.03200170088817</v>
       </c>
       <c r="C89" t="n">
-        <v>-18.58903681616852</v>
+        <v>30.85064261539066</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>26.56182878344579</v>
+        <v>-21.29755277855328</v>
       </c>
       <c r="B90" t="n">
-        <v>-30.30481771165282</v>
+        <v>-21.41621791131561</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.61264383635445</v>
+        <v>21.73435215965719</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-24.29761267446025</v>
+        <v>-25.86695961047348</v>
       </c>
       <c r="B91" t="n">
-        <v>56.62320337243762</v>
+        <v>-20.47175740124048</v>
       </c>
       <c r="C91" t="n">
-        <v>-32.92246225385607</v>
+        <v>-11.73026533149231</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>34.15395988440171</v>
+        <v>-19.74882284418129</v>
       </c>
       <c r="B92" t="n">
-        <v>-22.98030981207855</v>
+        <v>16.96567623893711</v>
       </c>
       <c r="C92" t="n">
-        <v>-14.38324652079508</v>
+        <v>-28.43840546720722</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-31.78266952838812</v>
+        <v>19.80004368534181</v>
       </c>
       <c r="B93" t="n">
-        <v>44.19584886214951</v>
+        <v>-32.71008903030718</v>
       </c>
       <c r="C93" t="n">
-        <v>-30.01086149026916</v>
+        <v>3.692506700869737</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>38.02726374548939</v>
+        <v>24.15906180018123</v>
       </c>
       <c r="B94" t="n">
-        <v>1.316223954227371</v>
+        <v>-33.08474910904869</v>
       </c>
       <c r="C94" t="n">
-        <v>-18.88198242075425</v>
+        <v>35.62450518844635</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-10.32532259304092</v>
+        <v>-17.51737647889678</v>
       </c>
       <c r="B95" t="n">
-        <v>-28.1966875534866</v>
+        <v>37.52229226216801</v>
       </c>
       <c r="C95" t="n">
-        <v>35.20207252312431</v>
+        <v>10.477068097572</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-16.43750696945536</v>
+        <v>-5.958147916941082</v>
       </c>
       <c r="B96" t="n">
-        <v>-18.66687350381898</v>
+        <v>20.50878879556087</v>
       </c>
       <c r="C96" t="n">
-        <v>-35.9530969505152</v>
+        <v>-35.64565408617258</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-28.42287044583176</v>
+        <v>30.98351116846326</v>
       </c>
       <c r="B97" t="n">
-        <v>-30.08044993424504</v>
+        <v>7.321470632832971</v>
       </c>
       <c r="C97" t="n">
-        <v>54.26673507004068</v>
+        <v>30.1889150942511</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5.565999604907337</v>
+        <v>25.43153651503255</v>
       </c>
       <c r="B98" t="n">
-        <v>35.73297141615672</v>
+        <v>-23.2964381708202</v>
       </c>
       <c r="C98" t="n">
-        <v>35.98295491497161</v>
+        <v>26.80263002476099</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-18.43608627805901</v>
+        <v>29.16836297945452</v>
       </c>
       <c r="B99" t="n">
-        <v>-7.425354023266481</v>
+        <v>-36.07236012846741</v>
       </c>
       <c r="C99" t="n">
-        <v>-38.58544003043977</v>
+        <v>24.04720711628337</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.5192458689395963</v>
+        <v>-17.30164166802011</v>
       </c>
       <c r="B100" t="n">
-        <v>-16.0101089833103</v>
+        <v>-20.96202375491829</v>
       </c>
       <c r="C100" t="n">
-        <v>14.39870439860901</v>
+        <v>38.23509678620932</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-22.29202235764</v>
+        <v>-26.7949018134457</v>
       </c>
       <c r="B101" t="n">
-        <v>-19.77731253602188</v>
+        <v>33.4266818650672</v>
       </c>
       <c r="C101" t="n">
-        <v>-17.60778814488333</v>
+        <v>-22.28048363222149</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-30.62588578765646</v>
+        <v>22.92273126673526</v>
       </c>
       <c r="B102" t="n">
-        <v>-41.78959072313238</v>
+        <v>-10.85910978725398</v>
       </c>
       <c r="C102" t="n">
-        <v>-26.58338998693756</v>
+        <v>-31.39589013929644</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-25.78129883938922</v>
+        <v>41.80108898384169</v>
       </c>
       <c r="B103" t="n">
-        <v>-29.02181986126745</v>
+        <v>-9.759571368616088</v>
       </c>
       <c r="C103" t="n">
-        <v>24.52824211843982</v>
+        <v>-19.48140362292514</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-27.18023024855212</v>
+        <v>31.64314130181411</v>
       </c>
       <c r="B104" t="n">
-        <v>-2.965686853836385</v>
+        <v>-15.56295224224169</v>
       </c>
       <c r="C104" t="n">
-        <v>-28.40139593155787</v>
+        <v>-25.19424325759768</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-31.64747437223969</v>
+        <v>-20.44979835443198</v>
       </c>
       <c r="B105" t="n">
-        <v>9.367162444080527</v>
+        <v>31.21935072182779</v>
       </c>
       <c r="C105" t="n">
-        <v>-19.10989135654913</v>
+        <v>-24.94907532342011</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-34.6778227265966</v>
+        <v>-13.52945765139256</v>
       </c>
       <c r="B106" t="n">
-        <v>5.710189149737437</v>
+        <v>-10.47066128890771</v>
       </c>
       <c r="C106" t="n">
-        <v>-22.65922172813674</v>
+        <v>-33.97860458811143</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-16.31636710799368</v>
+        <v>-42.00037749377557</v>
       </c>
       <c r="B107" t="n">
-        <v>-15.5283702602293</v>
+        <v>35.48502619541405</v>
       </c>
       <c r="C107" t="n">
-        <v>47.02769544565239</v>
+        <v>16.71233964498202</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>36.6776978128428</v>
+        <v>20.17421702096294</v>
       </c>
       <c r="B108" t="n">
-        <v>44.57577311343713</v>
+        <v>44.35375633427404</v>
       </c>
       <c r="C108" t="n">
-        <v>-25.63990312461334</v>
+        <v>-26.91870543072623</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-24.49800752262341</v>
+        <v>-26.26204811322857</v>
       </c>
       <c r="B109" t="n">
-        <v>-6.076118878707664</v>
+        <v>-12.96310543607496</v>
       </c>
       <c r="C109" t="n">
-        <v>15.79580516462463</v>
+        <v>11.00449638175844</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-31.52864992881408</v>
+        <v>15.21039114853693</v>
       </c>
       <c r="B110" t="n">
-        <v>-19.82863168863483</v>
+        <v>-16.95568563637927</v>
       </c>
       <c r="C110" t="n">
-        <v>-15.01995224254094</v>
+        <v>-16.69786459752933</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>13.61015826766796</v>
+        <v>-12.94349616015425</v>
       </c>
       <c r="B111" t="n">
-        <v>-28.42090989270618</v>
+        <v>-11.88873723002642</v>
       </c>
       <c r="C111" t="n">
-        <v>23.79684044302071</v>
+        <v>-25.77249884797428</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-14.65867504340731</v>
+        <v>-27.39542965272722</v>
       </c>
       <c r="B112" t="n">
-        <v>3.354338045445814</v>
+        <v>30.0409491792057</v>
       </c>
       <c r="C112" t="n">
-        <v>-48.81299601256875</v>
+        <v>17.25435635212832</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-34.14447861851628</v>
+        <v>16.09323965305085</v>
       </c>
       <c r="B113" t="n">
-        <v>-16.72447243510115</v>
+        <v>-25.42586507501461</v>
       </c>
       <c r="C113" t="n">
-        <v>-34.79278736315544</v>
+        <v>8.219731994935884</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>28.47754456999556</v>
+        <v>26.78422001645745</v>
       </c>
       <c r="B114" t="n">
-        <v>28.31485781441798</v>
+        <v>-27.79495244339351</v>
       </c>
       <c r="C114" t="n">
-        <v>40.52032278046934</v>
+        <v>-10.26006588902011</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-20.01764309894562</v>
+        <v>-36.44485427043344</v>
       </c>
       <c r="B115" t="n">
-        <v>-29.24685461781363</v>
+        <v>37.66651825614357</v>
       </c>
       <c r="C115" t="n">
-        <v>30.60271646800689</v>
+        <v>-16.95818166089197</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-21.75716168365204</v>
+        <v>25.60696720987552</v>
       </c>
       <c r="B116" t="n">
-        <v>39.90244457103686</v>
+        <v>-28.55368369358289</v>
       </c>
       <c r="C116" t="n">
-        <v>20.52781897060509</v>
+        <v>33.64658902554552</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-20.5004950886946</v>
+        <v>23.02223506278154</v>
       </c>
       <c r="B117" t="n">
-        <v>49.30970057822664</v>
+        <v>-31.63806028244802</v>
       </c>
       <c r="C117" t="n">
-        <v>29.56040408994668</v>
+        <v>34.35552505130747</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>28.8976576928744</v>
+        <v>-21.74607066606859</v>
       </c>
       <c r="B118" t="n">
-        <v>29.3774677152387</v>
+        <v>-38.92520260259245</v>
       </c>
       <c r="C118" t="n">
-        <v>-24.2640542865824</v>
+        <v>-32.43595467866448</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-24.12871901938646</v>
+        <v>16.95081258450652</v>
       </c>
       <c r="B119" t="n">
-        <v>-19.61608417141831</v>
+        <v>10.45442924057893</v>
       </c>
       <c r="C119" t="n">
-        <v>15.51060607099409</v>
+        <v>33.90801246334151</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-18.53360032540162</v>
+        <v>22.58500743975569</v>
       </c>
       <c r="B120" t="n">
-        <v>-31.92889210404045</v>
+        <v>14.73572444886974</v>
       </c>
       <c r="C120" t="n">
-        <v>-43.49748107610739</v>
+        <v>20.44475047108818</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>41.68396236060679</v>
+        <v>26.93761509243012</v>
       </c>
       <c r="B121" t="n">
-        <v>18.12483700857889</v>
+        <v>-26.98294568929525</v>
       </c>
       <c r="C121" t="n">
-        <v>-12.36682098952326</v>
+        <v>-18.01957353488439</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-9.12794680347748</v>
+        <v>32.27751601168823</v>
       </c>
       <c r="B122" t="n">
-        <v>42.24443270467215</v>
+        <v>0.673402282451103</v>
       </c>
       <c r="C122" t="n">
-        <v>-16.46755822172508</v>
+        <v>27.7865510254285</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-15.23630195351518</v>
+        <v>-19.28216783166986</v>
       </c>
       <c r="B123" t="n">
-        <v>45.72329404032317</v>
+        <v>25.77431171812932</v>
       </c>
       <c r="C123" t="n">
-        <v>27.97504151432572</v>
+        <v>-18.55259808592928</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>10.39772371372599</v>
+        <v>-35.05349390182066</v>
       </c>
       <c r="B124" t="n">
-        <v>23.65018805947785</v>
+        <v>-21.65968728773641</v>
       </c>
       <c r="C124" t="n">
-        <v>-21.78214367581914</v>
+        <v>-32.91158812715387</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-23.39024005745345</v>
+        <v>30.47310965374734</v>
       </c>
       <c r="B125" t="n">
-        <v>-29.75912801881578</v>
+        <v>24.11884905019211</v>
       </c>
       <c r="C125" t="n">
-        <v>33.74501512319357</v>
+        <v>-36.74229011311798</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>69.93108040937673</v>
+        <v>26.93346445169418</v>
       </c>
       <c r="B126" t="n">
-        <v>-26.35126332147462</v>
+        <v>23.80019569700531</v>
       </c>
       <c r="C126" t="n">
-        <v>-28.81455962330324</v>
+        <v>-33.37539914466418</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-35.01058730535497</v>
+        <v>-21.15424162889593</v>
       </c>
       <c r="B127" t="n">
-        <v>-27.92591497331526</v>
+        <v>4.026105103125945</v>
       </c>
       <c r="C127" t="n">
-        <v>-16.41275870194399</v>
+        <v>35.20565342921324</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-1.106258780027069</v>
+        <v>32.29934009606372</v>
       </c>
       <c r="B128" t="n">
-        <v>-7.378056481807056</v>
+        <v>33.01298501939342</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.628265038307977</v>
+        <v>35.08285877750469</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-27.53419969194949</v>
+        <v>-37.21496608826515</v>
       </c>
       <c r="B129" t="n">
-        <v>28.94690962954716</v>
+        <v>-20.45685469507008</v>
       </c>
       <c r="C129" t="n">
-        <v>-23.99212832444384</v>
+        <v>-14.18370851036511</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-15.87805271080831</v>
+        <v>-9.808924422033714</v>
       </c>
       <c r="B130" t="n">
-        <v>-22.87274552332327</v>
+        <v>29.0935669927331</v>
       </c>
       <c r="C130" t="n">
-        <v>56.06544383391094</v>
+        <v>-14.51212636294371</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>8.412528104893337</v>
+        <v>-18.55323367490149</v>
       </c>
       <c r="B131" t="n">
-        <v>-9.833351175227302</v>
+        <v>-11.65464753570138</v>
       </c>
       <c r="C131" t="n">
-        <v>-29.23936000774752</v>
+        <v>-18.70009822112925</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-23.02858136840743</v>
+        <v>28.40226207882075</v>
       </c>
       <c r="B132" t="n">
-        <v>59.63437814920476</v>
+        <v>17.40321471571178</v>
       </c>
       <c r="C132" t="n">
-        <v>-19.73962847714878</v>
+        <v>-31.32354254318667</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-30.70953856859933</v>
+        <v>40.8046992918919</v>
       </c>
       <c r="B133" t="n">
-        <v>-2.550292600077706</v>
+        <v>-30.25411347822517</v>
       </c>
       <c r="C133" t="n">
-        <v>-22.69291105952107</v>
+        <v>-35.54419593904158</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-40.86315280373725</v>
+        <v>26.22852919979402</v>
       </c>
       <c r="B134" t="n">
-        <v>-33.58728051458851</v>
+        <v>29.79954538239483</v>
       </c>
       <c r="C134" t="n">
-        <v>-34.71248866401435</v>
+        <v>36.69280073219346</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>30.82268024149615</v>
+        <v>32.41824275657848</v>
       </c>
       <c r="B135" t="n">
-        <v>-24.80510045480366</v>
+        <v>-23.40481068241533</v>
       </c>
       <c r="C135" t="n">
-        <v>55.54213826652619</v>
+        <v>29.87138465958286</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-16.72621551958503</v>
+        <v>-30.90866864911786</v>
       </c>
       <c r="B136" t="n">
-        <v>-1.624572135824276</v>
+        <v>17.31088675477244</v>
       </c>
       <c r="C136" t="n">
-        <v>79.7202934848812</v>
+        <v>10.48818233706431</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-2.035480400704674</v>
+        <v>28.79902332136096</v>
       </c>
       <c r="B137" t="n">
-        <v>18.3732896212297</v>
+        <v>25.92242502795641</v>
       </c>
       <c r="C137" t="n">
-        <v>-29.77084986758233</v>
+        <v>20.77704192772736</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-35.48826686802761</v>
+        <v>22.57472826485927</v>
       </c>
       <c r="B138" t="n">
-        <v>24.54298179251241</v>
+        <v>15.21122888119608</v>
       </c>
       <c r="C138" t="n">
-        <v>-29.82215958859008</v>
+        <v>31.54089101895545</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>18.03515319703384</v>
+        <v>-25.55618172395726</v>
       </c>
       <c r="B139" t="n">
-        <v>-9.985431647611701</v>
+        <v>-24.25142606271755</v>
       </c>
       <c r="C139" t="n">
-        <v>-16.76599006642907</v>
+        <v>-22.7324105548367</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-31.50063085424093</v>
+        <v>-15.19331083224612</v>
       </c>
       <c r="B140" t="n">
-        <v>-17.0755460415361</v>
+        <v>-35.17321025916975</v>
       </c>
       <c r="C140" t="n">
-        <v>22.59452081069447</v>
+        <v>0.008528469037841289</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>21.4359913206043</v>
+        <v>34.16781443940051</v>
       </c>
       <c r="B141" t="n">
-        <v>-16.28636222536533</v>
+        <v>-35.42787200383732</v>
       </c>
       <c r="C141" t="n">
-        <v>21.90063048999256</v>
+        <v>-17.77799221556203</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-26.19805772201284</v>
+        <v>12.79095970075142</v>
       </c>
       <c r="B142" t="n">
-        <v>24.91444510253807</v>
+        <v>23.56965785472817</v>
       </c>
       <c r="C142" t="n">
-        <v>-8.508860762820268</v>
+        <v>20.63848346156172</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-28.1800065587399</v>
+        <v>25.64070064828039</v>
       </c>
       <c r="B143" t="n">
-        <v>-20.93805449648515</v>
+        <v>-17.57053067359359</v>
       </c>
       <c r="C143" t="n">
-        <v>4.40063481628174</v>
+        <v>-22.37652415806297</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-34.09847250392391</v>
+        <v>10.48980780379574</v>
       </c>
       <c r="B144" t="n">
-        <v>35.63062964289021</v>
+        <v>-24.61246618847777</v>
       </c>
       <c r="C144" t="n">
-        <v>26.55543314547433</v>
+        <v>-17.36566355734385</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-33.71227209039169</v>
+        <v>13.19310643806157</v>
       </c>
       <c r="B145" t="n">
-        <v>-18.23491267926228</v>
+        <v>-22.41863525698139</v>
       </c>
       <c r="C145" t="n">
-        <v>24.42055406937872</v>
+        <v>-29.778999014975</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-19.88484293311898</v>
+        <v>22.57495402548099</v>
       </c>
       <c r="B146" t="n">
-        <v>-36.21971712332521</v>
+        <v>-25.05783753042026</v>
       </c>
       <c r="C146" t="n">
-        <v>-22.63775234409684</v>
+        <v>-23.45539694363487</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-27.42224589162462</v>
+        <v>-21.10383685790838</v>
       </c>
       <c r="B147" t="n">
-        <v>31.03517352498952</v>
+        <v>-27.24834661594246</v>
       </c>
       <c r="C147" t="n">
-        <v>-9.704749288965205</v>
+        <v>25.59669430799074</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-25.39037827419233</v>
+        <v>-23.65354319443083</v>
       </c>
       <c r="B148" t="n">
-        <v>-4.289355889958415</v>
+        <v>-30.22868336290604</v>
       </c>
       <c r="C148" t="n">
-        <v>-19.57801387322756</v>
+        <v>22.1382029930742</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-23.78590348387494</v>
+        <v>17.57047762277315</v>
       </c>
       <c r="B149" t="n">
-        <v>31.65880505913735</v>
+        <v>22.56978193753462</v>
       </c>
       <c r="C149" t="n">
-        <v>-27.54139140872824</v>
+        <v>-20.24685606885045</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-27.67718141240383</v>
+        <v>-32.63138680530135</v>
       </c>
       <c r="B150" t="n">
-        <v>-18.50760307017772</v>
+        <v>32.48439380171959</v>
       </c>
       <c r="C150" t="n">
-        <v>65.91463613480167</v>
+        <v>41.07298284265069</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-25.68574142934061</v>
+        <v>19.880107810286</v>
       </c>
       <c r="B151" t="n">
-        <v>-18.92543479860837</v>
+        <v>-13.60068833837677</v>
       </c>
       <c r="C151" t="n">
-        <v>62.19746038223382</v>
+        <v>-15.707317257615</v>
       </c>
     </row>
   </sheetData>
@@ -2139,1107 +2139,1107 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-29.08676274256155</v>
+        <v>51.0877115732163</v>
       </c>
       <c r="B2" t="n">
-        <v>-29.31989765947385</v>
+        <v>15.71673954316792</v>
       </c>
       <c r="C2" t="n">
-        <v>29.53042083045809</v>
+        <v>-17.99005622550931</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.512915345780124</v>
+        <v>13.71179477357848</v>
       </c>
       <c r="B3" t="n">
-        <v>31.42501980074973</v>
+        <v>-25.6390466718207</v>
       </c>
       <c r="C3" t="n">
-        <v>7.923926658159296</v>
+        <v>-28.81108130467012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>21.8275133424746</v>
+        <v>27.80056971960549</v>
       </c>
       <c r="B4" t="n">
-        <v>-24.64018845092573</v>
+        <v>38.95321105775501</v>
       </c>
       <c r="C4" t="n">
-        <v>-24.81354790410114</v>
+        <v>22.94508445943627</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-35.30787204697243</v>
+        <v>-22.22631531087476</v>
       </c>
       <c r="B5" t="n">
-        <v>-24.99013280245332</v>
+        <v>-15.19528765714481</v>
       </c>
       <c r="C5" t="n">
-        <v>-9.541137028716884</v>
+        <v>-25.11568051735976</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29.53381772467115</v>
+        <v>12.10997461003666</v>
       </c>
       <c r="B6" t="n">
-        <v>-11.17006925839276</v>
+        <v>-15.53340301019613</v>
       </c>
       <c r="C6" t="n">
-        <v>-19.62762936411417</v>
+        <v>-26.71777041067724</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-6.216181432452189</v>
+        <v>-22.38926484806008</v>
       </c>
       <c r="B7" t="n">
-        <v>37.87691495684511</v>
+        <v>-20.57084853095743</v>
       </c>
       <c r="C7" t="n">
-        <v>-16.78911045472729</v>
+        <v>-14.96762844693206</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>32.53839036682776</v>
+        <v>-30.0989234643976</v>
       </c>
       <c r="B8" t="n">
-        <v>31.08843165818918</v>
+        <v>23.36103528714688</v>
       </c>
       <c r="C8" t="n">
-        <v>-20.90444105139272</v>
+        <v>23.13437352493493</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19.13709466997506</v>
+        <v>-17.22223158640523</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.0794183382613</v>
+        <v>-26.05069331368148</v>
       </c>
       <c r="C9" t="n">
-        <v>-36.30458934132837</v>
+        <v>-26.95693521917589</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-23.75964994728269</v>
+        <v>19.15078355409942</v>
       </c>
       <c r="B10" t="n">
-        <v>28.91722595205575</v>
+        <v>26.06264493628321</v>
       </c>
       <c r="C10" t="n">
-        <v>9.673296269142007</v>
+        <v>-25.65225690442177</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-25.16990224684372</v>
+        <v>-29.54965117452764</v>
       </c>
       <c r="B11" t="n">
-        <v>-25.89697128760878</v>
+        <v>19.72034850769552</v>
       </c>
       <c r="C11" t="n">
-        <v>34.36359457294053</v>
+        <v>-23.33056506352731</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-25.6669702107406</v>
+        <v>-15.41396709712685</v>
       </c>
       <c r="B12" t="n">
-        <v>-26.40982880378739</v>
+        <v>-27.60109446202254</v>
       </c>
       <c r="C12" t="n">
-        <v>-8.895868382462567</v>
+        <v>-8.694671198676026</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-25.50199988669684</v>
+        <v>-21.60753367332262</v>
       </c>
       <c r="B13" t="n">
-        <v>-29.56421889269917</v>
+        <v>29.72839605598302</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97684109672022</v>
+        <v>-23.72123283835722</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>54.88745570738892</v>
+        <v>-27.13119459868674</v>
       </c>
       <c r="B14" t="n">
-        <v>-19.52649234965469</v>
+        <v>32.03206053641826</v>
       </c>
       <c r="C14" t="n">
-        <v>-30.47465856452633</v>
+        <v>33.82205882332256</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-30.13485127274686</v>
+        <v>18.61366315428148</v>
       </c>
       <c r="B15" t="n">
-        <v>-26.30737676101119</v>
+        <v>-21.1596093935719</v>
       </c>
       <c r="C15" t="n">
-        <v>18.94021858399467</v>
+        <v>19.96495134678833</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16.64762934894944</v>
+        <v>-21.29077432123917</v>
       </c>
       <c r="B16" t="n">
-        <v>-28.26939577399499</v>
+        <v>17.51562955347152</v>
       </c>
       <c r="C16" t="n">
-        <v>-22.44638430267365</v>
+        <v>21.4341810415432</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8.237518772090711</v>
+        <v>-5.602506190071979</v>
       </c>
       <c r="B17" t="n">
-        <v>25.64635841725448</v>
+        <v>-34.11669494971574</v>
       </c>
       <c r="C17" t="n">
-        <v>30.84500860675431</v>
+        <v>-14.70769520443792</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-27.01803085104153</v>
+        <v>-20.50161403154268</v>
       </c>
       <c r="B18" t="n">
-        <v>42.88273325989836</v>
+        <v>21.27445362190224</v>
       </c>
       <c r="C18" t="n">
-        <v>-33.41975483436952</v>
+        <v>41.63223290004896</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-29.87604908098401</v>
+        <v>-17.59970023966482</v>
       </c>
       <c r="B19" t="n">
-        <v>-29.13440766051262</v>
+        <v>37.03400203325483</v>
       </c>
       <c r="C19" t="n">
-        <v>-14.46834689329996</v>
+        <v>7.898204311762115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>56.6270132492605</v>
+        <v>-27.44179000915819</v>
       </c>
       <c r="B20" t="n">
-        <v>39.3089544572832</v>
+        <v>-37.66858891332163</v>
       </c>
       <c r="C20" t="n">
-        <v>61.6074437144476</v>
+        <v>-36.74614697316926</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14.75535754378419</v>
+        <v>-20.93788179003274</v>
       </c>
       <c r="B21" t="n">
-        <v>14.51309395072004</v>
+        <v>27.52772510850845</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.947090697221094</v>
+        <v>-21.6270102370508</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.1255292930581097</v>
+        <v>31.05940740143058</v>
       </c>
       <c r="B22" t="n">
-        <v>-48.67646845102954</v>
+        <v>-29.64354081065939</v>
       </c>
       <c r="C22" t="n">
-        <v>-18.74967749089337</v>
+        <v>23.01771208505705</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>31.31354548214761</v>
+        <v>-19.93254705031523</v>
       </c>
       <c r="B23" t="n">
-        <v>-24.39835771826107</v>
+        <v>33.07945873446061</v>
       </c>
       <c r="C23" t="n">
-        <v>-21.06638645444288</v>
+        <v>-23.49761115041018</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>27.99677543662584</v>
+        <v>-31.53342506072703</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.670458308990863</v>
+        <v>-10.53517881689398</v>
       </c>
       <c r="C24" t="n">
-        <v>-9.149324315747416</v>
+        <v>23.91823161231097</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16.41349259696462</v>
+        <v>-33.28237414963446</v>
       </c>
       <c r="B25" t="n">
-        <v>17.24180059403771</v>
+        <v>21.49867372649443</v>
       </c>
       <c r="C25" t="n">
-        <v>-17.87995193723088</v>
+        <v>30.13914640154513</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-15.56597270683947</v>
+        <v>-30.12746198784302</v>
       </c>
       <c r="B26" t="n">
-        <v>43.02172856019914</v>
+        <v>18.91602216090812</v>
       </c>
       <c r="C26" t="n">
-        <v>47.80457782220707</v>
+        <v>24.24519326373235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>21.31983394001777</v>
+        <v>-22.39958811439048</v>
       </c>
       <c r="B27" t="n">
-        <v>-27.97072948364755</v>
+        <v>-28.52803600618659</v>
       </c>
       <c r="C27" t="n">
-        <v>-25.03354748606029</v>
+        <v>38.6199136425808</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-26.15191868539456</v>
+        <v>-30.84971898478534</v>
       </c>
       <c r="B28" t="n">
-        <v>-28.70230282303402</v>
+        <v>-29.43496660778131</v>
       </c>
       <c r="C28" t="n">
-        <v>-20.74190396082924</v>
+        <v>21.34249689729593</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-19.47761787497779</v>
+        <v>19.6578929404432</v>
       </c>
       <c r="B29" t="n">
-        <v>31.13358595129806</v>
+        <v>19.86566717999209</v>
       </c>
       <c r="C29" t="n">
-        <v>33.0967102214837</v>
+        <v>-17.74134751708865</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-31.49274227172792</v>
+        <v>-20.00630186066497</v>
       </c>
       <c r="B30" t="n">
-        <v>84.12425348263871</v>
+        <v>31.22539831460735</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.642260931816521</v>
+        <v>13.94487905089047</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>19.08023832467356</v>
+        <v>-24.34185514483599</v>
       </c>
       <c r="B31" t="n">
-        <v>-19.03603607969249</v>
+        <v>-24.15231940280239</v>
       </c>
       <c r="C31" t="n">
-        <v>-28.52374790866132</v>
+        <v>-30.48616186014783</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>13.07188325177589</v>
+        <v>-30.24560375128074</v>
       </c>
       <c r="B32" t="n">
-        <v>-30.87178310518228</v>
+        <v>-29.04564508676726</v>
       </c>
       <c r="C32" t="n">
-        <v>-25.92406475097955</v>
+        <v>-26.77484641605198</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-17.65387893405275</v>
+        <v>-20.04681740215691</v>
       </c>
       <c r="B33" t="n">
-        <v>25.3741748279425</v>
+        <v>-14.05424466698831</v>
       </c>
       <c r="C33" t="n">
-        <v>4.217221415051143</v>
+        <v>-35.02577675704027</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-21.413243114301</v>
+        <v>16.63536257167656</v>
       </c>
       <c r="B34" t="n">
-        <v>-16.65281883216665</v>
+        <v>31.12671320737335</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.228141755806928</v>
+        <v>-20.60639135477738</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>21.15505476500092</v>
+        <v>-27.28208762762159</v>
       </c>
       <c r="B35" t="n">
-        <v>56.11493675429834</v>
+        <v>-32.18576998068341</v>
       </c>
       <c r="C35" t="n">
-        <v>-7.069055341029712</v>
+        <v>11.03563118436344</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>37.4753769090544</v>
+        <v>21.10300609482993</v>
       </c>
       <c r="B36" t="n">
-        <v>43.79233503473768</v>
+        <v>18.52235706616765</v>
       </c>
       <c r="C36" t="n">
-        <v>-35.75640253202372</v>
+        <v>25.02841695843502</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>46.79130224862658</v>
+        <v>-16.29080436317325</v>
       </c>
       <c r="B37" t="n">
-        <v>61.01630946536655</v>
+        <v>18.38973711543522</v>
       </c>
       <c r="C37" t="n">
-        <v>8.77916834852544</v>
+        <v>-17.72181810814083</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-5.334800255608268</v>
+        <v>-28.91809514838632</v>
       </c>
       <c r="B38" t="n">
-        <v>7.181864828355621</v>
+        <v>46.26180237213296</v>
       </c>
       <c r="C38" t="n">
-        <v>-26.90307737055424</v>
+        <v>20.34168130814862</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-36.64653321233977</v>
+        <v>-10.78141254486936</v>
       </c>
       <c r="B39" t="n">
-        <v>-23.53091625971611</v>
+        <v>-19.79360127280717</v>
       </c>
       <c r="C39" t="n">
-        <v>-26.9755229780898</v>
+        <v>-12.04716104141686</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-12.79598833740254</v>
+        <v>-20.67397267960489</v>
       </c>
       <c r="B40" t="n">
-        <v>36.57451412160076</v>
+        <v>12.66188142465939</v>
       </c>
       <c r="C40" t="n">
-        <v>-24.95328819963857</v>
+        <v>36.34250732913534</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-15.01554195190254</v>
+        <v>-11.67483535729845</v>
       </c>
       <c r="B41" t="n">
-        <v>1.457938185601481</v>
+        <v>18.02226800066399</v>
       </c>
       <c r="C41" t="n">
-        <v>-20.55814135423183</v>
+        <v>36.4061117296697</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>47.94023733298827</v>
+        <v>33.737549707303</v>
       </c>
       <c r="B42" t="n">
-        <v>40.84499262183029</v>
+        <v>-24.18569810219487</v>
       </c>
       <c r="C42" t="n">
-        <v>28.41432966431995</v>
+        <v>3.89939945421677</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>58.32268920491128</v>
+        <v>35.60454115779741</v>
       </c>
       <c r="B43" t="n">
-        <v>-19.06040715777613</v>
+        <v>-20.22740861869364</v>
       </c>
       <c r="C43" t="n">
-        <v>43.94263940061627</v>
+        <v>27.29005938768714</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-28.56957625878374</v>
+        <v>15.48363972362024</v>
       </c>
       <c r="B44" t="n">
-        <v>-16.86016525066367</v>
+        <v>-25.01585418342134</v>
       </c>
       <c r="C44" t="n">
-        <v>-25.16151783961144</v>
+        <v>25.82450035761146</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>63.58020907211083</v>
+        <v>-29.54027426092881</v>
       </c>
       <c r="B45" t="n">
-        <v>12.17225500256976</v>
+        <v>36.47853774525107</v>
       </c>
       <c r="C45" t="n">
-        <v>-29.23431417465084</v>
+        <v>-21.2045872183277</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-40.39024144441167</v>
+        <v>25.2041871991809</v>
       </c>
       <c r="B46" t="n">
-        <v>-29.83245009380266</v>
+        <v>-19.1794071501808</v>
       </c>
       <c r="C46" t="n">
-        <v>20.78277284028134</v>
+        <v>-15.63080648164494</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-12.79523542058084</v>
+        <v>26.32720623162883</v>
       </c>
       <c r="B47" t="n">
-        <v>-14.26495260895163</v>
+        <v>33.58919757798621</v>
       </c>
       <c r="C47" t="n">
-        <v>-28.10944907193415</v>
+        <v>18.93314273050844</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>13.53071765157918</v>
+        <v>30.82079135116487</v>
       </c>
       <c r="B48" t="n">
-        <v>-43.1289015944344</v>
+        <v>36.83898847242436</v>
       </c>
       <c r="C48" t="n">
-        <v>28.6193928864176</v>
+        <v>-32.70175295633005</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9.334604363139711</v>
+        <v>-17.80451501877356</v>
       </c>
       <c r="B49" t="n">
-        <v>28.11790422103492</v>
+        <v>-31.67988378307328</v>
       </c>
       <c r="C49" t="n">
-        <v>-25.36943374077894</v>
+        <v>-25.88300575284706</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-35.48363042412222</v>
+        <v>-42.20865549333744</v>
       </c>
       <c r="B50" t="n">
-        <v>30.68973173780946</v>
+        <v>-34.49983083294607</v>
       </c>
       <c r="C50" t="n">
-        <v>28.23734881924715</v>
+        <v>25.49790923759371</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>52.65778825587357</v>
+        <v>29.85066175732099</v>
       </c>
       <c r="B51" t="n">
-        <v>37.74161215852898</v>
+        <v>13.353190065387</v>
       </c>
       <c r="C51" t="n">
-        <v>-23.54339506199062</v>
+        <v>42.31021731549637</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-31.93586220038429</v>
+        <v>27.88933004486239</v>
       </c>
       <c r="B52" t="n">
-        <v>-35.69836795924088</v>
+        <v>-30.96956480094847</v>
       </c>
       <c r="C52" t="n">
-        <v>21.60359765742972</v>
+        <v>25.14857819224794</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-13.72815712961053</v>
+        <v>-16.59221117524397</v>
       </c>
       <c r="B53" t="n">
-        <v>-31.64882091948302</v>
+        <v>-13.0680683575339</v>
       </c>
       <c r="C53" t="n">
-        <v>-28.60542510004634</v>
+        <v>-18.06663940251503</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-25.704830760184</v>
+        <v>-5.117496582840205</v>
       </c>
       <c r="B54" t="n">
-        <v>21.19964027582398</v>
+        <v>20.72483022911257</v>
       </c>
       <c r="C54" t="n">
-        <v>-6.760196521002732</v>
+        <v>25.58982537187028</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>40.24821770294501</v>
+        <v>-35.4047184451132</v>
       </c>
       <c r="B55" t="n">
-        <v>6.835087157832827</v>
+        <v>-27.93986177802885</v>
       </c>
       <c r="C55" t="n">
-        <v>-21.73604755349019</v>
+        <v>18.40039523850655</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>18.537942905838</v>
+        <v>-30.38717415578161</v>
       </c>
       <c r="B56" t="n">
-        <v>-30.88339540291735</v>
+        <v>-29.68816019217368</v>
       </c>
       <c r="C56" t="n">
-        <v>-32.5603142463881</v>
+        <v>22.41353217122017</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-32.32437790246081</v>
+        <v>-21.65398262091805</v>
       </c>
       <c r="B57" t="n">
-        <v>-20.26225626530079</v>
+        <v>42.04353472333707</v>
       </c>
       <c r="C57" t="n">
-        <v>-35.5814030645418</v>
+        <v>-15.78490914945291</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>37.94046000112966</v>
+        <v>29.81120215856447</v>
       </c>
       <c r="B58" t="n">
-        <v>-11.84495691731885</v>
+        <v>31.09904407282509</v>
       </c>
       <c r="C58" t="n">
-        <v>57.11603840028222</v>
+        <v>-25.97235506322384</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>26.96992834457443</v>
+        <v>-41.39467056853458</v>
       </c>
       <c r="B59" t="n">
-        <v>23.6709532119562</v>
+        <v>-16.99780176439028</v>
       </c>
       <c r="C59" t="n">
-        <v>17.24705392542245</v>
+        <v>-16.30554091494326</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-21.99135377597423</v>
+        <v>-20.09022534356559</v>
       </c>
       <c r="B60" t="n">
-        <v>19.47591635155006</v>
+        <v>-17.92510834410315</v>
       </c>
       <c r="C60" t="n">
-        <v>-11.86771580671011</v>
+        <v>29.57840864933247</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-6.012550866332612</v>
+        <v>-30.11446586548872</v>
       </c>
       <c r="B61" t="n">
-        <v>54.18126763326086</v>
+        <v>17.91006034371097</v>
       </c>
       <c r="C61" t="n">
-        <v>2.475277859181593</v>
+        <v>30.39872046430396</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>26.9036554154753</v>
+        <v>21.82961497081206</v>
       </c>
       <c r="B62" t="n">
-        <v>26.22138290936874</v>
+        <v>36.6749895041857</v>
       </c>
       <c r="C62" t="n">
-        <v>11.40428829695411</v>
+        <v>-19.16966035035206</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-16.96782948393964</v>
+        <v>6.639801341739914</v>
       </c>
       <c r="B63" t="n">
-        <v>-24.48579318259392</v>
+        <v>-33.75444291041142</v>
       </c>
       <c r="C63" t="n">
-        <v>-21.00130418566113</v>
+        <v>31.46176296620148</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>15.43886600236594</v>
+        <v>-16.49316341603244</v>
       </c>
       <c r="B64" t="n">
-        <v>-30.1902770617073</v>
+        <v>33.42318800819179</v>
       </c>
       <c r="C64" t="n">
-        <v>32.88314637562124</v>
+        <v>23.28265082169895</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-23.51990791928624</v>
+        <v>19.60857877612173</v>
       </c>
       <c r="B65" t="n">
-        <v>-23.69133758504748</v>
+        <v>-22.4542673568837</v>
       </c>
       <c r="C65" t="n">
-        <v>-7.883995090770834</v>
+        <v>-34.75939293117926</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-35.8422418962326</v>
+        <v>-18.1103590780349</v>
       </c>
       <c r="B66" t="n">
-        <v>-23.05715995825997</v>
+        <v>25.94600245858781</v>
       </c>
       <c r="C66" t="n">
-        <v>-25.27395272468175</v>
+        <v>24.36291362634153</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>41.59680324779125</v>
+        <v>22.93826929324185</v>
       </c>
       <c r="B67" t="n">
-        <v>70.80309863381318</v>
+        <v>-16.716446095585</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.369258274771396</v>
+        <v>-32.02270471741339</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-29.37917205828261</v>
+        <v>18.49591283758373</v>
       </c>
       <c r="B68" t="n">
-        <v>27.76262033419587</v>
+        <v>25.82673395472661</v>
       </c>
       <c r="C68" t="n">
-        <v>-34.02096338606873</v>
+        <v>-30.34455036642202</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>22.42950403660247</v>
+        <v>29.6999000770961</v>
       </c>
       <c r="B69" t="n">
-        <v>-21.78670005763598</v>
+        <v>13.34718262353592</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.771515593822263</v>
+        <v>-45.97536756080744</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>10.35942933933559</v>
+        <v>-35.75083012971598</v>
       </c>
       <c r="B70" t="n">
-        <v>-38.52470110027357</v>
+        <v>-10.54007791680668</v>
       </c>
       <c r="C70" t="n">
-        <v>33.59012259758934</v>
+        <v>-15.88009124595763</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>17.90728550840492</v>
+        <v>-25.58299630660682</v>
       </c>
       <c r="B71" t="n">
-        <v>8.638909382172196</v>
+        <v>24.2694170957094</v>
       </c>
       <c r="C71" t="n">
-        <v>-21.45524956509484</v>
+        <v>-42.31452381207422</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-10.34497552796129</v>
+        <v>-15.04301420731312</v>
       </c>
       <c r="B72" t="n">
-        <v>-34.06727163499575</v>
+        <v>40.19873095864627</v>
       </c>
       <c r="C72" t="n">
-        <v>19.95781246910148</v>
+        <v>-6.45256769100262</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>34.0802425704311</v>
+        <v>-26.74467780531093</v>
       </c>
       <c r="B73" t="n">
-        <v>-18.61397657461453</v>
+        <v>40.20961686139432</v>
       </c>
       <c r="C73" t="n">
-        <v>-27.7549009315437</v>
+        <v>-38.72485887099131</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-31.49458497633936</v>
+        <v>28.45433782990736</v>
       </c>
       <c r="B74" t="n">
-        <v>-30.65096635584762</v>
+        <v>-27.41905769122957</v>
       </c>
       <c r="C74" t="n">
-        <v>-24.09466882758673</v>
+        <v>-31.8233734540058</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-22.18645040321098</v>
+        <v>-10.98940060807574</v>
       </c>
       <c r="B75" t="n">
-        <v>-26.44794267667214</v>
+        <v>18.80608282617043</v>
       </c>
       <c r="C75" t="n">
-        <v>-11.70674034435435</v>
+        <v>-14.84097467282146</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-14.71759776635219</v>
+        <v>22.22674604765622</v>
       </c>
       <c r="B76" t="n">
-        <v>-31.47642041823081</v>
+        <v>27.75141186381151</v>
       </c>
       <c r="C76" t="n">
-        <v>27.20617572462276</v>
+        <v>30.23071865279567</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-24.1245466994454</v>
+        <v>24.97408157035115</v>
       </c>
       <c r="B77" t="n">
-        <v>0.593964506814774</v>
+        <v>26.63741473667555</v>
       </c>
       <c r="C77" t="n">
-        <v>7.81145389610076</v>
+        <v>-15.6464427538805</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-30.84770089542709</v>
+        <v>12.10932460207727</v>
       </c>
       <c r="B78" t="n">
-        <v>-13.34824333788343</v>
+        <v>-22.53098922051825</v>
       </c>
       <c r="C78" t="n">
-        <v>48.55568855318071</v>
+        <v>-19.03172233148213</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-27.54876625350939</v>
+        <v>24.9359177252678</v>
       </c>
       <c r="B79" t="n">
-        <v>-24.61373233604136</v>
+        <v>-30.27356357935953</v>
       </c>
       <c r="C79" t="n">
-        <v>64.51423886328173</v>
+        <v>29.81574060413883</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>35.31589998876892</v>
+        <v>38.80511664390611</v>
       </c>
       <c r="B80" t="n">
-        <v>-29.9686297627529</v>
+        <v>26.77362876941999</v>
       </c>
       <c r="C80" t="n">
-        <v>9.345930937685484</v>
+        <v>14.71110400597977</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-18.42636470182221</v>
+        <v>29.39712068617246</v>
       </c>
       <c r="B81" t="n">
-        <v>-5.052341314907763</v>
+        <v>36.79178272586532</v>
       </c>
       <c r="C81" t="n">
-        <v>-34.0806752288039</v>
+        <v>25.55260687213575</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-12.08779052854894</v>
+        <v>23.86070343976669</v>
       </c>
       <c r="B82" t="n">
-        <v>-24.75133723115249</v>
+        <v>13.59464616958561</v>
       </c>
       <c r="C82" t="n">
-        <v>-31.7576841953327</v>
+        <v>25.52901605916129</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>24.69046726023709</v>
+        <v>-23.04289462644714</v>
       </c>
       <c r="B83" t="n">
-        <v>-35.6884388008754</v>
+        <v>-17.18343156422679</v>
       </c>
       <c r="C83" t="n">
-        <v>-20.373422778896</v>
+        <v>-19.45984618614713</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>49.51107460703494</v>
+        <v>-30.63862597804392</v>
       </c>
       <c r="B84" t="n">
-        <v>-22.8314409091249</v>
+        <v>-11.62578712039753</v>
       </c>
       <c r="C84" t="n">
-        <v>16.27345198599703</v>
+        <v>27.05040866356127</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>65.2850086993713</v>
+        <v>28.10998841890108</v>
       </c>
       <c r="B85" t="n">
-        <v>11.19352085029773</v>
+        <v>21.4911445129225</v>
       </c>
       <c r="C85" t="n">
-        <v>-18.75878167599931</v>
+        <v>33.36386672813298</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>18.75058768757427</v>
+        <v>-33.97298999560921</v>
       </c>
       <c r="B86" t="n">
-        <v>-22.73751958942673</v>
+        <v>-40.47423229412808</v>
       </c>
       <c r="C86" t="n">
-        <v>-20.39870306759781</v>
+        <v>-25.74106410225173</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>6.927121027581298</v>
+        <v>-28.16502504060193</v>
       </c>
       <c r="B87" t="n">
-        <v>8.703332561523252</v>
+        <v>15.84181247158915</v>
       </c>
       <c r="C87" t="n">
-        <v>50.11472332478974</v>
+        <v>3.518379430355364</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>28.86769384711307</v>
+        <v>21.77790326919992</v>
       </c>
       <c r="B88" t="n">
-        <v>-31.52059897949595</v>
+        <v>-22.29266844558299</v>
       </c>
       <c r="C88" t="n">
-        <v>-18.94667151048838</v>
+        <v>26.88973968680399</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>42.12907411484498</v>
+        <v>18.5136353686817</v>
       </c>
       <c r="B89" t="n">
-        <v>-12.85975063874641</v>
+        <v>-9.014788691663815</v>
       </c>
       <c r="C89" t="n">
-        <v>-32.04259839843522</v>
+        <v>32.92557771694369</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-16.6943790938986</v>
+        <v>-34.92680079491872</v>
       </c>
       <c r="B90" t="n">
-        <v>-17.88334671833867</v>
+        <v>11.0050212677241</v>
       </c>
       <c r="C90" t="n">
-        <v>49.59288048578215</v>
+        <v>20.93611278619122</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>58.89859193110503</v>
+        <v>-18.67430588887803</v>
       </c>
       <c r="B91" t="n">
-        <v>-20.62970048595815</v>
+        <v>12.64825801519221</v>
       </c>
       <c r="C91" t="n">
-        <v>-34.21882627060787</v>
+        <v>16.89870291572252</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>38.71208234565491</v>
+        <v>25.18551428015962</v>
       </c>
       <c r="B92" t="n">
-        <v>-18.08857973430998</v>
+        <v>-29.03735468742452</v>
       </c>
       <c r="C92" t="n">
-        <v>-29.72263300938724</v>
+        <v>-11.51203114102237</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-15.26005097459911</v>
+        <v>-16.81661439145964</v>
       </c>
       <c r="B93" t="n">
-        <v>-30.82603110927054</v>
+        <v>-28.47939332952709</v>
       </c>
       <c r="C93" t="n">
-        <v>17.48583421403331</v>
+        <v>42.38867984947934</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-13.54134217131442</v>
+        <v>20.71041725451716</v>
       </c>
       <c r="B94" t="n">
-        <v>13.01218413443332</v>
+        <v>-31.70598266748152</v>
       </c>
       <c r="C94" t="n">
-        <v>-24.82545657849698</v>
+        <v>9.87415227905919</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-32.3220738615518</v>
+        <v>-25.11187419918966</v>
       </c>
       <c r="B95" t="n">
-        <v>10.86810001648869</v>
+        <v>-7.118720953423617</v>
       </c>
       <c r="C95" t="n">
-        <v>40.60764912820355</v>
+        <v>15.47973584201197</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-18.45916098987521</v>
+        <v>-21.42120539104701</v>
       </c>
       <c r="B96" t="n">
-        <v>41.18889047396556</v>
+        <v>-34.03437872202574</v>
       </c>
       <c r="C96" t="n">
-        <v>44.74903533660621</v>
+        <v>-25.89699808197961</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>29.42254580853408</v>
+        <v>-21.29239182761542</v>
       </c>
       <c r="B97" t="n">
-        <v>14.47568562795252</v>
+        <v>-30.5095533706345</v>
       </c>
       <c r="C97" t="n">
-        <v>-28.27375624626172</v>
+        <v>22.77581978208365</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-1.649650393614593</v>
+        <v>39.56250131675624</v>
       </c>
       <c r="B98" t="n">
-        <v>18.15655768920837</v>
+        <v>-18.20912106266869</v>
       </c>
       <c r="C98" t="n">
-        <v>46.14659659554136</v>
+        <v>13.82530528289544</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-32.01395854401493</v>
+        <v>39.85488774847892</v>
       </c>
       <c r="B99" t="n">
-        <v>21.26632729928125</v>
+        <v>33.83050180186392</v>
       </c>
       <c r="C99" t="n">
-        <v>81.59545798085358</v>
+        <v>-26.31443001684638</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-24.43755482236957</v>
+        <v>-27.11044129613468</v>
       </c>
       <c r="B100" t="n">
-        <v>-24.09469477253673</v>
+        <v>-27.24553289307101</v>
       </c>
       <c r="C100" t="n">
-        <v>-26.43381363931695</v>
+        <v>-23.02674763490595</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>17.09970119278394</v>
+        <v>18.53706131817435</v>
       </c>
       <c r="B101" t="n">
-        <v>12.94515297162776</v>
+        <v>-31.24511747663418</v>
       </c>
       <c r="C101" t="n">
-        <v>-28.37306018388265</v>
+        <v>-29.14559107091524</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>78.43939223482978</v>
+        <v>-16.96397791422664</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.3558524474756103</v>
+        <v>19.28331577118921</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-20.40706874211192</v>
+        <v>43.38515043395662</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>40.25188898900698</v>
+        <v>25.28524996723036</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-8.424626773912369</v>
+        <v>4.4363340111493</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-19.05906305203345</v>
+        <v>25.4737373872636</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-37.92803679186634</v>
+        <v>23.52613220417805</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>26.64400571770768</v>
+        <v>-19.03857873175309</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-24.73033221571948</v>
+        <v>-34.81374996362757</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>41.91053077318482</v>
+        <v>12.43420327569176</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-31.273033558304</v>
+        <v>28.42416585968895</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>75.07149196170982</v>
+        <v>22.13924465759895</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>27.01598836947192</v>
+        <v>-22.58351934069765</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-34.16650288119306</v>
+        <v>-17.64566269871899</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-24.84137019908929</v>
+        <v>-34.37001717251398</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>36.11524865653674</v>
+        <v>29.01608115805581</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>31.89874502722825</v>
+        <v>-31.51154549158203</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>27.83421032108391</v>
+        <v>-22.82476064515307</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-23.05221294510728</v>
+        <v>-11.89442043437331</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.72396339974101</v>
+        <v>12.08674916387151</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-22.10758844634792</v>
+        <v>-26.11503409964921</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>73.84146521084548</v>
+        <v>-30.39324872372591</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>13.99445651371978</v>
+        <v>25.6858113681784</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>38.1322020227495</v>
+        <v>-18.13242908434384</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>22.64921149797462</v>
+        <v>-7.240636518467904</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>7.780324453934564</v>
+        <v>17.10737855761308</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>33.07397102085785</v>
+        <v>20.54344666690584</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-11.46075402945466</v>
+        <v>20.68516664322695</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>36.88015418067163</v>
+        <v>21.52453660183672</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-20.05867658488279</v>
+        <v>35.37968148511916</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>49.70415071496479</v>
+        <v>9.117330101750429</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>42.31145610694879</v>
+        <v>-13.81826485123251</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-26.88290355089996</v>
+        <v>27.1659299913984</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-16.06158667357939</v>
+        <v>22.05163412335124</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-29.77585365081555</v>
+        <v>43.42823281424841</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-31.90918312327548</v>
+        <v>-20.05859633665184</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-21.79866750342656</v>
+        <v>-31.10904679482283</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-13.72532769349409</v>
+        <v>-20.64789197547118</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-17.33534184156723</v>
+        <v>28.57630921631059</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>31.6412128689506</v>
+        <v>0.168154306289463</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-19.6951548535991</v>
+        <v>-24.73684373094241</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-18.43726136126705</v>
+        <v>-23.1991478081096</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-26.99789197973841</v>
+        <v>39.03501411026282</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-3.326017828377119</v>
+        <v>-19.20133104824567</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>17.60930230310674</v>
+        <v>-14.52581995542516</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-24.87885834792634</v>
+        <v>-12.95700436708493</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-7.262956754716112</v>
+        <v>16.81952471671822</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>51.5394441512045</v>
+        <v>-29.89478736441884</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-35.6709042806816</v>
+        <v>-35.97296276207686</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>25.46771903684096</v>
+        <v>38.78071337960154</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
